--- a/fms/src/main/resources/static/EXCEL/夹具定义.xlsx
+++ b/fms/src/main/resources/static/EXCEL/夹具定义.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry Hu.DESKTOP-C8EDL2H\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EA963-18DB-4076-A292-7100C9E07E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF96CF-016E-4139-BF2E-B70C95932ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="夹具定义表" sheetId="2" r:id="rId1"/>
@@ -25,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
-  <si>
-    <t>Workcell</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>PartNo</t>
-  </si>
-  <si>
-    <t>UsedFor</t>
-  </si>
-  <si>
-    <t>RecOn</t>
-  </si>
-  <si>
-    <t>EditOn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="83">
   <si>
     <t>EF2189</t>
   </si>
@@ -133,14 +106,6 @@
   </si>
   <si>
     <t>1284663</t>
-  </si>
-  <si>
-    <t>UPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JW05</t>
@@ -480,15 +445,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecByID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditByID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerID</t>
+    <t>workCell</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>partNo</t>
+  </si>
+  <si>
+    <t>usedFor</t>
+  </si>
+  <si>
+    <t>upl</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>pmPeriod</t>
+  </si>
+  <si>
+    <t>recOn</t>
+  </si>
+  <si>
+    <t>recBy</t>
+  </si>
+  <si>
+    <t>editOn</t>
+  </si>
+  <si>
+    <t>editBy</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,9 +498,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -596,22 +595,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -894,1121 +896,1121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A3BBF-5411-4C88-8DF5-055B0783014C}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="8"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
+      <c r="M1" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
+      <c r="I2" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
-      <c r="K2" s="5">
-        <v>43650.673004780088</v>
+      <c r="K2" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43650.673004780088</v>
+        <v>2</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5">
-        <v>43650.674258136569</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="5">
-        <v>43650.674258136569</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>30</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5">
-        <v>43650.675109687501</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5">
-        <v>43650.675109687501</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5">
-        <v>43650.675707870367</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="5">
-        <v>43650.675707870367</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5">
-        <v>43650.676189733793</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="5">
-        <v>43650.676189733793</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
-        <v>30</v>
-      </c>
-      <c r="K7" s="5">
-        <v>43650.6768246875</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="5">
-        <v>43650.6768246875</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>10</v>
+      <c r="I8" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
-      <c r="K8" s="5">
-        <v>43650.677289386571</v>
+      <c r="K8" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="5">
-        <v>43650.677289386571</v>
+        <v>2</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
-        <v>30</v>
-      </c>
-      <c r="K9" s="5">
-        <v>43650.678377974538</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="5">
-        <v>43650.678377974538</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <v>30</v>
-      </c>
-      <c r="K10" s="5">
-        <v>43658.335147025464</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="5">
-        <v>43658.335147025464</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>30</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>30</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>30</v>
-      </c>
-      <c r="K11" s="5">
-        <v>43658.336073692131</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="5">
-        <v>43658.336073692131</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5">
-        <v>43658.336572337961</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="5">
-        <v>43658.336572337961</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
-        <v>30</v>
-      </c>
-      <c r="K13" s="5">
-        <v>43662.635273148146</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="5">
-        <v>43662.635273148146</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>30</v>
-      </c>
-      <c r="K14" s="5">
-        <v>43662.636407210644</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="5">
-        <v>43662.636407210644</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
-        <v>30</v>
-      </c>
-      <c r="K15" s="5">
-        <v>43662.63733769676</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="5">
-        <v>43662.63733769676</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>10</v>
+      <c r="I16" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>30</v>
       </c>
-      <c r="K16" s="5">
-        <v>43664.666139270834</v>
+      <c r="K16" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="5">
-        <v>43664.666139270834</v>
+        <v>2</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>10</v>
+      <c r="I17" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
       </c>
-      <c r="K17" s="5">
-        <v>43664.666969872684</v>
+      <c r="K17" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="5">
-        <v>43664.666969872684</v>
+        <v>2</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>10</v>
+      <c r="I18" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J18" s="3">
         <v>30</v>
       </c>
-      <c r="K18" s="5">
-        <v>43769.418819444443</v>
+      <c r="K18" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="5">
-        <v>43770.349363657406</v>
+        <v>2</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>30</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3">
-        <v>30</v>
-      </c>
-      <c r="K19" s="5">
-        <v>43769.41968082176</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="5">
-        <v>43770.349591168982</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>10</v>
+      <c r="I20" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>30</v>
       </c>
-      <c r="K20" s="5">
-        <v>43769.420288344903</v>
+      <c r="K20" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="5">
-        <v>43770.349798414347</v>
+        <v>2</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>10</v>
+      <c r="I21" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J21" s="3">
         <v>30</v>
       </c>
-      <c r="K21" s="5">
-        <v>43769.420966516205</v>
+      <c r="K21" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="5">
-        <v>43770.349993900461</v>
+        <v>2</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>10</v>
+      <c r="I22" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J22" s="3">
         <v>30</v>
       </c>
-      <c r="K22" s="5">
-        <v>43769.421360532404</v>
+      <c r="K22" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="5">
-        <v>43770.350166284719</v>
+        <v>2</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>10</v>
+      <c r="I23" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <v>30</v>
       </c>
-      <c r="K23" s="5">
-        <v>43769.421868749996</v>
+      <c r="K23" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="5">
-        <v>43770.35035763889</v>
+        <v>2</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>10</v>
+      <c r="I24" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>30</v>
       </c>
-      <c r="K24" s="5">
-        <v>43769.422343668979</v>
+      <c r="K24" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="5">
-        <v>43770.350588229165</v>
+        <v>2</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>10</v>
+      <c r="I25" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J25" s="3">
         <v>30</v>
       </c>
-      <c r="K25" s="5">
-        <v>43769.422735416665</v>
+      <c r="K25" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="5">
-        <v>43776.417275347223</v>
+        <v>2</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
